--- a/public/files/template2.xlsx
+++ b/public/files/template2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>lop</t>
   </si>
@@ -42,19 +42,10 @@
     <t>makithi</t>
   </si>
   <si>
-    <t>giothi</t>
-  </si>
-  <si>
-    <t>ngaythi</t>
-  </si>
-  <si>
     <t>giangvien</t>
   </si>
   <si>
     <t>khoa</t>
-  </si>
-  <si>
-    <t>thoigianthi</t>
   </si>
 </sst>
 </file>
@@ -415,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,10 +418,9 @@
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="17.109375" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -457,15 +447,6 @@
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
